--- a/KSIDC/src/test/resources/TestData4.xlsx
+++ b/KSIDC/src/test/resources/TestData4.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrilesha.shelke\Downloads\Beacon 5\Beacon\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrilesha.shelke\git\repository\KSIDC\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666972EE-D996-4DF5-9830-AE5AF1A3E076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAE97F0-8009-43DC-9DC1-27980E41803F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KSIDC_Registration" sheetId="11" r:id="rId1"/>
     <sheet name="KSIDC_Business_Information" sheetId="12" r:id="rId2"/>
+    <sheet name="KSIDC_Basic_Information" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Yes</t>
   </si>
@@ -125,6 +126,21 @@
   </si>
   <si>
     <t>TreasuryReleaseDate</t>
+  </si>
+  <si>
+    <t>DWE34DF33333</t>
+  </si>
+  <si>
+    <t>ProductionCapacityQuantityPerAnnumTest</t>
+  </si>
+  <si>
+    <t>Basic_Information_Module</t>
+  </si>
+  <si>
+    <t>UdyamNoUdyogAadhaar</t>
+  </si>
+  <si>
+    <t>UDYAM-MH-19-0044030</t>
   </si>
 </sst>
 </file>
@@ -627,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE191C-E8B5-453F-AF01-1191A9FB2EB6}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +694,9 @@
       <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -725,6 +743,110 @@
       <c r="M2" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="N2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6ECD6F-FAA8-4B2D-8542-99596C20324A}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
